--- a/biology/Zoologie/Cerocoma/Cerocoma.xlsx
+++ b/biology/Zoologie/Cerocoma/Cerocoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerocoma est un genre d'insectes de l'ordre des coléoptères, de la famille des Meloidae, de la sous-famille des Meloinae, et de la tribu des Cerocomini.
 </t>
@@ -511,12 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Cerocoma a été décrit par l'entomologiste français Étienne Louis Geoffroy, en 1762.
-Nom vernaculaire
-Cérocome (féminin)[1]
-Taxinomie</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cerocoma a été décrit par l'entomologiste français Étienne Louis Geoffroy, en 1762.
+</t>
         </is>
       </c>
     </row>
@@ -541,12 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cérocome (féminin)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cerocoma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerocoma</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (1 septembre 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1 septembre 2014) :
 Cerocoma bernhaueri
 Cerocoma dahli
 Cerocoma ephesica
@@ -560,7 +611,7 @@
 Cerocoma turcica
 Cerocoma vahli
 Liste des espèces
-Selon Fauna Europaea                                      (31 mai 2014)[3] :
+Selon Fauna Europaea                                      (31 mai 2014) :
 Cerocoma (Cerocoma)
 Cerocoma adamovichiana (Piller et Mitterpacher, 1783)
 Cerocoma albopilosa Dvořák, 1993
